--- a/BackTest/2020-01-26 BackTest ETC.xlsx
+++ b/BackTest/2020-01-26 BackTest ETC.xlsx
@@ -451,7 +451,7 @@
         <v>6355.23269313052</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>6355.23269313052</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>6355.23269313052</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6331.09729313052</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>6331.09729313052</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>6331.09729313052</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>6344.115593130519</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>6315.503993130519</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>6315.503993130519</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>6082.261693130519</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>6082.261693130519</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>6113.175093130519</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5593.640993130519</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>5601.223493130519</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>6659.66535070024</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-23941.10776163868</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-24108.46336163868</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-22416.26536163868</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-22365.52746163868</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-22403.60016163868</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-22741.55156163868</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-22516.61702252373</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-22437.81392252373</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-22646.13562252373</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-22727.69112252373</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-23237.65732252373</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-23240.99912252372</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -14344,10 +14344,14 @@
         <v>-27009.55946060608</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>9750</v>
+      </c>
+      <c r="J423" t="n">
+        <v>9750</v>
+      </c>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
@@ -14377,11 +14381,19 @@
         <v>-27086.03326060608</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>9780</v>
+      </c>
+      <c r="J424" t="n">
+        <v>9750</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +14422,17 @@
         <v>-27210.04606060608</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>9750</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,10 +14461,14 @@
         <v>-27035.21746060608</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>9765</v>
+      </c>
+      <c r="J426" t="n">
+        <v>9765</v>
+      </c>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
@@ -14476,11 +14498,19 @@
         <v>-27094.05826060608</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>9770</v>
+      </c>
+      <c r="J427" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +14539,19 @@
         <v>-27195.43936060608</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>9755</v>
+      </c>
+      <c r="J428" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +14580,19 @@
         <v>-27195.43936060608</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>9750</v>
+      </c>
+      <c r="J429" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +14621,19 @@
         <v>-27165.59456060608</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>9750</v>
+      </c>
+      <c r="J430" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +14662,19 @@
         <v>-27239.65766060608</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>9770</v>
+      </c>
+      <c r="J431" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14703,19 @@
         <v>-27239.65766060608</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>9750</v>
+      </c>
+      <c r="J432" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14744,19 @@
         <v>-27239.48696060608</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>9750</v>
+      </c>
+      <c r="J433" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +14785,19 @@
         <v>-27297.44426060608</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>9770</v>
+      </c>
+      <c r="J434" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +14826,19 @@
         <v>-27308.16026060608</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>9750</v>
+      </c>
+      <c r="J435" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14867,19 @@
         <v>-27308.16026060608</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>9745</v>
+      </c>
+      <c r="J436" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +14908,19 @@
         <v>-27462.96316060608</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>9745</v>
+      </c>
+      <c r="J437" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +14949,19 @@
         <v>-27469.08376060608</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>9740</v>
+      </c>
+      <c r="J438" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +14990,19 @@
         <v>-27652.48456060608</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>9735</v>
+      </c>
+      <c r="J439" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +15031,19 @@
         <v>-27652.48456060608</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J440" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +15072,19 @@
         <v>-27652.48456060608</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J441" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15113,19 @@
         <v>-27652.48456060608</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J442" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15154,19 @@
         <v>-27304.31966060608</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J443" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15195,19 @@
         <v>-27305.52216060608</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>9735</v>
+      </c>
+      <c r="J444" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15236,19 @@
         <v>-27284.63526060608</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J445" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15277,19 @@
         <v>-27291.64606060608</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>9740</v>
+      </c>
+      <c r="J446" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15318,19 @@
         <v>-27291.64606060608</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J447" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15359,19 @@
         <v>-27464.03456060608</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J448" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15400,19 @@
         <v>-27474.54826060608</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>9720</v>
+      </c>
+      <c r="J449" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +15441,19 @@
         <v>-27474.54826060608</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>9705</v>
+      </c>
+      <c r="J450" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15274,9 +15488,13 @@
         <v>9705</v>
       </c>
       <c r="J451" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K451" t="inlineStr"/>
+        <v>9765</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15311,11 +15529,11 @@
         <v>9725</v>
       </c>
       <c r="J452" t="n">
-        <v>9705</v>
+        <v>9765</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L452" t="n">
@@ -15346,15 +15564,17 @@
         <v>-27121.53546060608</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>9750</v>
+      </c>
       <c r="J453" t="n">
-        <v>9705</v>
+        <v>9765</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L453" t="n">
@@ -15388,8 +15608,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15418,11 +15644,19 @@
         <v>-27123.29126060608</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>9760</v>
+      </c>
+      <c r="J455" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15454,8 +15688,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15487,8 +15727,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15520,8 +15766,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15553,8 +15805,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15586,8 +15844,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15616,11 +15880,17 @@
         <v>-26445.05066060608</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15649,11 +15919,17 @@
         <v>-25199.87696060608</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15682,11 +15958,17 @@
         <v>-25226.31326060608</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15715,11 +15997,17 @@
         <v>-25235.50866060608</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15748,11 +16036,17 @@
         <v>-25275.50866060608</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15781,11 +16075,17 @@
         <v>-25251.35546060608</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15814,11 +16114,17 @@
         <v>-25252.55546060608</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15847,11 +16153,17 @@
         <v>-25252.55546060608</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15880,11 +16192,17 @@
         <v>-25162.84706060608</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15913,11 +16231,17 @@
         <v>-24899.41656060609</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15946,11 +16270,17 @@
         <v>-24883.07086060608</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15982,8 +16312,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16015,8 +16351,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16048,8 +16390,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16081,8 +16429,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16114,8 +16468,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16147,8 +16507,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16180,8 +16546,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16213,8 +16585,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16246,8 +16624,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16279,8 +16663,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16312,8 +16702,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16345,8 +16741,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16378,8 +16780,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16411,8 +16819,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16444,8 +16858,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16477,8 +16897,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16510,8 +16936,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16543,8 +16975,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16576,8 +17014,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16609,8 +17053,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16642,8 +17092,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16675,8 +17131,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16708,8 +17170,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16741,8 +17209,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16774,8 +17248,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16807,8 +17287,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16840,8 +17326,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16873,8 +17365,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16906,8 +17404,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16939,8 +17443,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16972,8 +17482,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17005,8 +17521,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17038,8 +17560,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17071,8 +17599,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17104,8 +17638,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17137,8 +17677,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17170,8 +17716,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17203,8 +17755,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17236,8 +17794,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17269,8 +17833,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17302,8 +17872,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17335,8 +17911,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17368,8 +17950,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17401,8 +17989,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17434,8 +18028,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17467,8 +18067,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17500,8 +18106,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17533,8 +18145,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17566,8 +18184,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17599,8 +18223,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17632,8 +18262,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17665,8 +18301,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17698,8 +18340,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17731,8 +18379,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17764,8 +18418,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17797,8 +18457,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17830,8 +18496,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17863,8 +18535,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17896,8 +18574,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17929,8 +18613,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17959,11 +18649,19 @@
         <v>-32362.68406060609</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>9900</v>
+      </c>
+      <c r="J532" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17992,11 +18690,19 @@
         <v>-32293.77236060609</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>9890</v>
+      </c>
+      <c r="J533" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18025,11 +18731,19 @@
         <v>-32418.96706060609</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>9900</v>
+      </c>
+      <c r="J534" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18058,11 +18772,19 @@
         <v>-32418.96706060609</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>9895</v>
+      </c>
+      <c r="J535" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18091,11 +18813,19 @@
         <v>-32439.80676060609</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>9895</v>
+      </c>
+      <c r="J536" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18124,11 +18854,19 @@
         <v>-32641.26386060609</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>9890</v>
+      </c>
+      <c r="J537" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18157,11 +18895,19 @@
         <v>-32619.86536060609</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>9860</v>
+      </c>
+      <c r="J538" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18190,11 +18936,19 @@
         <v>-32642.82496060609</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>9875</v>
+      </c>
+      <c r="J539" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18223,11 +18977,19 @@
         <v>-32634.06936060608</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>9855</v>
+      </c>
+      <c r="J540" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18256,11 +19018,19 @@
         <v>-32634.06936060608</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>9870</v>
+      </c>
+      <c r="J541" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18289,11 +19059,19 @@
         <v>-32634.06936060608</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>9870</v>
+      </c>
+      <c r="J542" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18322,11 +19100,19 @@
         <v>-33052.69386060609</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>9870</v>
+      </c>
+      <c r="J543" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18355,11 +19141,19 @@
         <v>-34418.46256060609</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>9855</v>
+      </c>
+      <c r="J544" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18388,11 +19182,19 @@
         <v>-34458.46256060609</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>9835</v>
+      </c>
+      <c r="J545" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18421,11 +19223,19 @@
         <v>-34513.96256060609</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>9815</v>
+      </c>
+      <c r="J546" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18454,11 +19264,19 @@
         <v>-34713.96256060609</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>9810</v>
+      </c>
+      <c r="J547" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18487,11 +19305,19 @@
         <v>-35317.44106060608</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>9805</v>
+      </c>
+      <c r="J548" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18520,11 +19346,19 @@
         <v>-35317.44106060608</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>9795</v>
+      </c>
+      <c r="J549" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18553,11 +19387,19 @@
         <v>-35398.28976060609</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>9795</v>
+      </c>
+      <c r="J550" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18586,11 +19428,19 @@
         <v>-35398.28976060609</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>9770</v>
+      </c>
+      <c r="J551" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18619,11 +19469,19 @@
         <v>-31923.16376060609</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>9770</v>
+      </c>
+      <c r="J552" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18652,11 +19510,19 @@
         <v>-31873.97306060609</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>9800</v>
+      </c>
+      <c r="J553" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18685,11 +19551,19 @@
         <v>-32697.13206060609</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>9815</v>
+      </c>
+      <c r="J554" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18718,11 +19592,19 @@
         <v>-32697.13206060609</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>9795</v>
+      </c>
+      <c r="J555" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18751,11 +19633,19 @@
         <v>-32694.53486060609</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>9795</v>
+      </c>
+      <c r="J556" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18784,11 +19674,19 @@
         <v>-32694.53486060609</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>9800</v>
+      </c>
+      <c r="J557" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18823,9 +19721,13 @@
         <v>9800</v>
       </c>
       <c r="J558" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K558" t="inlineStr"/>
+        <v>9765</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18860,11 +19762,11 @@
         <v>9800</v>
       </c>
       <c r="J559" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L559" t="n">
@@ -18895,11 +19797,13 @@
         <v>-33108.58246060609</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>9770</v>
+      </c>
       <c r="J560" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -18940,7 +19844,7 @@
         <v>9735</v>
       </c>
       <c r="J561" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -18981,7 +19885,7 @@
         <v>9760</v>
       </c>
       <c r="J562" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19022,7 +19926,7 @@
         <v>9815</v>
       </c>
       <c r="J563" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19057,13 +19961,11 @@
         <v>-33069.94936060609</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>9815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19098,13 +20000,11 @@
         <v>-33069.94936060609</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>9825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19145,7 +20045,7 @@
         <v>9825</v>
       </c>
       <c r="J566" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -19186,7 +20086,7 @@
         <v>9840</v>
       </c>
       <c r="J567" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -19221,13 +20121,11 @@
         <v>-32721.42756060609</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>9825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -19262,13 +20160,11 @@
         <v>-32721.42756060609</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>9845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -19303,13 +20199,11 @@
         <v>-32949.06696060608</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>9845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -19350,7 +20244,7 @@
         <v>9835</v>
       </c>
       <c r="J571" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -19385,11 +20279,13 @@
         <v>-32920.14296060608</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>9810</v>
+      </c>
       <c r="J572" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -19430,7 +20326,7 @@
         <v>9835</v>
       </c>
       <c r="J573" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -19465,11 +20361,13 @@
         <v>-32855.12966060609</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>9850</v>
+      </c>
       <c r="J574" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -19504,11 +20402,13 @@
         <v>-32764.96076060609</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>9855</v>
+      </c>
       <c r="J575" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -19547,7 +20447,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -19586,7 +20486,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -19625,7 +20525,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -19660,11 +20560,13 @@
         <v>-32828.71366060609</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>9825</v>
+      </c>
       <c r="J579" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -19703,7 +20605,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -19742,7 +20644,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -19777,11 +20679,13 @@
         <v>-32876.32866060609</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>9855</v>
+      </c>
       <c r="J582" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -19820,7 +20724,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -19855,11 +20759,13 @@
         <v>-32876.32866060609</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>9820</v>
+      </c>
       <c r="J584" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -19894,11 +20800,13 @@
         <v>-33076.32866060609</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>9835</v>
+      </c>
       <c r="J585" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -19933,11 +20841,13 @@
         <v>-33076.32866060609</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>9805</v>
+      </c>
       <c r="J586" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -19972,11 +20882,13 @@
         <v>-33066.43236060609</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>9805</v>
+      </c>
       <c r="J587" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20011,11 +20923,13 @@
         <v>-31973.75186060609</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>9810</v>
+      </c>
       <c r="J588" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20054,7 +20968,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20089,19 +21003,19 @@
         <v>-31985.35836060609</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>9800</v>
+        <v>9765</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L590" t="n">
-        <v>1.002142857142857</v>
+        <v>1</v>
       </c>
       <c r="M590" t="inlineStr"/>
     </row>
@@ -20128,11 +21042,17 @@
         <v>-32205.88796060609</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20161,11 +21081,17 @@
         <v>-32262.04366060609</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20194,11 +21120,19 @@
         <v>-32280.35976060609</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>9800</v>
+      </c>
+      <c r="J593" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20227,11 +21161,19 @@
         <v>-32242.18956060609</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>9785</v>
+      </c>
+      <c r="J594" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20260,11 +21202,19 @@
         <v>-32379.76746060609</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>9800</v>
+      </c>
+      <c r="J595" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20293,11 +21243,19 @@
         <v>-32288.98306060609</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>9770</v>
+      </c>
+      <c r="J596" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20326,11 +21284,19 @@
         <v>-32277.84726060609</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>9780</v>
+      </c>
+      <c r="J597" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20359,11 +21325,19 @@
         <v>-32267.56316060609</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>9785</v>
+      </c>
+      <c r="J598" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20392,11 +21366,19 @@
         <v>-32336.22475118174</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>9805</v>
+      </c>
+      <c r="J599" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20425,11 +21407,19 @@
         <v>-32378.19085118174</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>9795</v>
+      </c>
+      <c r="J600" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20458,11 +21448,19 @@
         <v>-32367.13885118174</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>9790</v>
+      </c>
+      <c r="J601" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20491,11 +21489,19 @@
         <v>-32367.13885118174</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>9795</v>
+      </c>
+      <c r="J602" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20524,11 +21530,19 @@
         <v>-31768.13885118174</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>9795</v>
+      </c>
+      <c r="J603" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20557,11 +21571,19 @@
         <v>-31802.11885118174</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>9820</v>
+      </c>
+      <c r="J604" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20590,11 +21612,19 @@
         <v>-31777.04865118174</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>9790</v>
+      </c>
+      <c r="J605" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20623,11 +21653,19 @@
         <v>-31826.76255118174</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>9795</v>
+      </c>
+      <c r="J606" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20656,11 +21694,19 @@
         <v>-31824.73815118174</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>9765</v>
+      </c>
+      <c r="J607" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20689,11 +21735,19 @@
         <v>-31873.96215118174</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>9780</v>
+      </c>
+      <c r="J608" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20722,11 +21776,19 @@
         <v>-31914.36555118174</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>9775</v>
+      </c>
+      <c r="J609" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20755,11 +21817,19 @@
         <v>-32164.36555118174</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>9760</v>
+      </c>
+      <c r="J610" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20788,11 +21858,19 @@
         <v>-32154.36555118174</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>9750</v>
+      </c>
+      <c r="J611" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20821,11 +21899,19 @@
         <v>-32158.81935118174</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>9755</v>
+      </c>
+      <c r="J612" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20854,11 +21940,19 @@
         <v>-31927.89555118174</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>9740</v>
+      </c>
+      <c r="J613" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20887,11 +21981,19 @@
         <v>-31854.77195118174</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>9770</v>
+      </c>
+      <c r="J614" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20920,11 +22022,19 @@
         <v>-31884.77195118174</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>9795</v>
+      </c>
+      <c r="J615" t="n">
+        <v>9765</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20961,7 +22071,11 @@
       <c r="J616" t="n">
         <v>9765</v>
       </c>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21000,7 +22114,7 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L617" t="n">
@@ -21031,9 +22145,11 @@
         <v>-32690.85415118173</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>9730</v>
+      </c>
       <c r="J618" t="n">
         <v>9765</v>
       </c>
@@ -21070,9 +22186,11 @@
         <v>-32690.85415118173</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>9720</v>
+      </c>
       <c r="J619" t="n">
         <v>9765</v>
       </c>
@@ -21150,9 +22268,11 @@
         <v>-31891.81235118174</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>9770</v>
+      </c>
       <c r="J621" t="n">
         <v>9765</v>
       </c>
@@ -21189,9 +22309,11 @@
         <v>-31882.06385118173</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>9770</v>
+      </c>
       <c r="J622" t="n">
         <v>9765</v>
       </c>
@@ -21228,9 +22350,11 @@
         <v>-31882.06385118173</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>9805</v>
+      </c>
       <c r="J623" t="n">
         <v>9765</v>
       </c>
@@ -21349,9 +22473,11 @@
         <v>-31884.48835118174</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>9785</v>
+      </c>
       <c r="J626" t="n">
         <v>9765</v>
       </c>
@@ -21429,9 +22555,11 @@
         <v>-31506.72600246689</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>9790</v>
+      </c>
       <c r="J628" t="n">
         <v>9765</v>
       </c>
@@ -21509,9 +22637,11 @@
         <v>-31532.52390246688</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>9800</v>
+      </c>
       <c r="J630" t="n">
         <v>9765</v>
       </c>
@@ -21548,9 +22678,11 @@
         <v>-31532.52390246688</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>9830</v>
+      </c>
       <c r="J631" t="n">
         <v>9765</v>
       </c>
@@ -21587,9 +22719,11 @@
         <v>-31603.61840246688</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>9830</v>
+      </c>
       <c r="J632" t="n">
         <v>9765</v>
       </c>
